--- a/file/算法对照表0720A.xlsx
+++ b/file/算法对照表0720A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385" tabRatio="911"/>
+    <workbookView windowWidth="25200" windowHeight="12090" tabRatio="911" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="体重值范围" sheetId="15" r:id="rId1"/>
@@ -1425,9 +1425,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1439,13 +1439,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1454,60 +1453,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1522,7 +1468,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1535,11 +1503,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1559,16 +1534,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1576,9 +1552,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1591,7 +1591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,7 +1603,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,7 +1645,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1639,139 +1771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1874,22 +1874,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1905,21 +1900,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1948,17 +1928,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1977,10 +1977,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1989,133 +1989,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2667,8 +2667,8 @@
   <sheetPr/>
   <dimension ref="A3:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.625" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3278,8 +3278,8 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3921,7 +3921,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4924,7 +4924,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/file/算法对照表0720A.xlsx
+++ b/file/算法对照表0720A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12090" tabRatio="911" activeTab="12"/>
+    <workbookView windowWidth="25200" windowHeight="11775" tabRatio="911" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="体重值范围" sheetId="15" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="458">
   <si>
     <t xml:space="preserve">6、标准体重：  标准体重  </t>
   </si>
@@ -1425,9 +1425,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1438,30 +1438,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1474,45 +1460,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1527,8 +1476,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1542,9 +1514,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1558,27 +1529,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1591,49 +1591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,13 +1609,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,7 +1645,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,31 +1735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,25 +1747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1747,31 +1759,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1874,6 +1874,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1907,8 +1916,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1931,43 +1966,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1977,10 +1977,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1989,133 +1989,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3278,7 +3278,7 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -3920,8 +3920,8 @@
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.25" outlineLevelCol="4"/>
